--- a/approaches/evaluation_logs/baseline/train-5-evaluation_log-Ollama_llama3.3-2025-01-01-0000-converted.xlsx
+++ b/approaches/evaluation_logs/baseline/train-5-evaluation_log-Ollama_llama3.3-2025-01-01-0000-converted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,45 +496,55 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Correct Extracted Predicates with Parents</t>
+          <t>Detected Predicates Doc Parent</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Correct Extracted Predicates with Related</t>
+          <t>Detected Predicates Doc Related</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>Correct Pred Predicates Parents</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Correct Pred Predicates Related</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Extracted Objects</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Gold Standard Objects</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Correct Extracted Objects</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Extracted Entities</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Gold Standard Entities</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Correct Extracted Entities</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Result String</t>
         </is>
@@ -584,24 +594,30 @@
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>4</v>
-      </c>
-      <c r="U2" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 -- Supervisor Agent --
@@ -661,24 +677,30 @@
         <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
         <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V3" t="n">
+        <v>6</v>
+      </c>
+      <c r="W3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 -- Supervisor Agent --
@@ -737,24 +759,30 @@
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R4" t="n">
         <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
         <v>4</v>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4</v>
+      </c>
+      <c r="W4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 -- Supervisor Agent --
@@ -814,24 +842,30 @@
         <v>4</v>
       </c>
       <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
         <v>8</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>6</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>6</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>9</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>7</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>7</v>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 -- Supervisor Agent --
@@ -893,24 +927,30 @@
         <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3</v>
+      </c>
+      <c r="W6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 -- Supervisor Agent --
